--- a/src/view/test/高级抽奖 模板excel.xlsx
+++ b/src/view/test/高级抽奖 模板excel.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGithub\randomAward\src\view\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0BBBF3-644A-4DEA-B700-B8E7BAB9A1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE5A15-3358-4915-B08E-3EC36254D40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3600" windowWidth="16755" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18630" yWindow="1305" windowWidth="16755" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表一" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -474,7 +474,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -502,7 +502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -516,7 +516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -530,7 +530,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -544,7 +544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -558,7 +558,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -572,7 +572,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -586,7 +586,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -600,7 +600,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -614,7 +614,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -628,7 +628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -641,8 +641,11 @@
       <c r="D12" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
